--- a/11_Process_Thread/02 进程保护 暴力枚举进程.xlsx
+++ b/11_Process_Thread/02 进程保护 暴力枚举进程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\11_Process_Thread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685C1A7-F613-4E61-97F1-3C7D2EE36DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6154A5F-F1B7-4228-86D4-645DDDF91D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>进程保护 暴力枚举进程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,13 +180,34 @@
   </si>
   <si>
     <t>kd&gt; ed 877c6b20+270 0x144d0801+0x2000</t>
+  </si>
+  <si>
+    <t>注意:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     SeLocateProcessImageName </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +286,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,6 +331,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3511,10 +3548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3562,6 +3599,16 @@
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3611,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5801ED2-9EDC-496D-BB15-A570C82DA6E1}">
   <dimension ref="K6:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3771,7 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E20C8C-A0B7-43AF-B4ED-942F16D3C4A9}">
   <dimension ref="B3:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
